--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v.syroiezhin/Desktop/github/xlsx-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F9D7A4-BC32-654C-8C9A-3219251E62A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D9B5B-6340-E944-8020-BC853CBD34CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{34081E2E-10CE-E447-A8CF-169C75E9375B}"/>
   </bookViews>
   <sheets>
-    <sheet name="FIRST3" sheetId="1" r:id="rId1"/>
-    <sheet name="SECOND3" sheetId="2" r:id="rId2"/>
-    <sheet name="THIRD3" sheetId="3" r:id="rId3"/>
+    <sheet name="FIRST" sheetId="1" r:id="rId1"/>
+    <sheet name="SECOND" sheetId="2" r:id="rId2"/>
+    <sheet name="THIRD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
